--- a/puntomascotas/links.xlsx
+++ b/puntomascotas/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjammunoz/Desktop/Dotu/Scraping/scrapingdotu/puntomascotas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB79CA6-0C27-3244-8123-C47F88D4B97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EDCD0E-3B29-AD47-9F44-2AA888C5F169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="17100" windowHeight="19980" activeTab="1" xr2:uid="{2A0B3359-BF2E-B245-8EEC-525CFE5A3F08}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="175">
   <si>
     <t>-</t>
   </si>
@@ -288,9 +288,6 @@
     <t>https://puntomascotas.cl/farmacia-veterinaria/35518-phisio-anti-olor-limpiador-auricular-100-ml-7502010422641.html</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
     <t>petdotu1</t>
   </si>
   <si>
@@ -529,6 +526,45 @@
   </si>
   <si>
     <t>petdotu100</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/34417-pederol-250ml-8436529621938.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/30437-naxpet-jarabe-7800006006814.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/34963-feliway-difusor-repuesto-48-ml-3411112169498.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/cats/35445-royal-canin-growth-mother-babycat-15kg-7896181215875.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/30441-mixantip-plus-crema-15gr-7800006003455.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/30771-laveta-carnitina-perros-8711231114283.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/30770-laveta-taurina-gatos-8711231114306.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/nexgard-spectra/37705-nexgard-spectra-301-a-60-kg-7809599501973.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/nexgard-spectra/37496-nexgard-spectra-301-a-60-kg-7809599501928.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/nexgard-spectra/37701-nexgard-spectra-301-a-60-kg-7809599501980.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/nexgard-spectra/37494-nexgard-spectra-301-a-60-kg-7809599501935.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/37025-silimavet-silimarina-30-comprimidos-761887135476.html</t>
+  </si>
+  <si>
+    <t>https://puntomascotas.cl/farmacia-veterinaria/30465-condrovet-comprimidos-7800006005619.html</t>
   </si>
 </sst>
 </file>
@@ -1594,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CA9B21-8CE6-A949-A00C-22B35B550D6B}">
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,667 +1641,649 @@
     <col min="1" max="1" width="108.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" t="s">
+      <c r="B47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C57" t="s">
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C60" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C63" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C64" t="s">
+      <c r="B64" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C66" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C68" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C71" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C72" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C73" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C74" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C75" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C76" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C77" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C79" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C80" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C81" t="s">
-        <v>162</v>
+      <c r="B81" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2298,58 +2316,45 @@
     <hyperlink ref="A27" r:id="rId26" xr:uid="{FBF5ECCA-F82E-534E-BA4C-C95B4F474FC5}"/>
     <hyperlink ref="A28" r:id="rId27" xr:uid="{CC05A672-4DD1-8448-B439-8D2E80E9132A}"/>
     <hyperlink ref="A29" r:id="rId28" xr:uid="{BBFF9203-88D3-9045-A8F6-F90DAB26FA03}"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://puntomascotas.cl/farmacia-veterinaria/34963-feliway-difusor-repuesto-48-ml-3411112169498.html" xr:uid="{8213209C-3DBD-A740-97BB-4EC4D3A635B4}"/>
-    <hyperlink ref="A31" r:id="rId30" xr:uid="{BE022B4F-E9E8-2A45-9DA2-5075F2476D8A}"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://puntomascotas.cl/cats/35445-royal-canin-growth-mother-babycat-15kg-7896181215875.html" xr:uid="{A185D23D-FAF7-584C-A60F-D722FEE99561}"/>
-    <hyperlink ref="A33" r:id="rId32" xr:uid="{82C30FD1-0FCE-184F-B76F-A192F3A7CAF2}"/>
-    <hyperlink ref="A34" r:id="rId33" xr:uid="{F980350A-3C8F-2A49-A7BF-05268208F30D}"/>
-    <hyperlink ref="A35" r:id="rId34" xr:uid="{6C9F9A2E-ABAA-3C4F-A126-33D3DFB5C4EB}"/>
-    <hyperlink ref="A36" r:id="rId35" xr:uid="{96621287-DE84-8F47-91CE-2AD818E5DF47}"/>
-    <hyperlink ref="A37" r:id="rId36" xr:uid="{FF9BA53F-74BB-EC46-B201-9C5A4D32A575}"/>
-    <hyperlink ref="A38" r:id="rId37" xr:uid="{19A51F84-646D-F54F-BB3A-1FF5F4FD72C9}"/>
-    <hyperlink ref="A39" r:id="rId38" xr:uid="{21E451DB-ABDD-8C44-9DE5-7A8947AE8746}"/>
-    <hyperlink ref="A40" r:id="rId39" xr:uid="{CC1C5D98-7952-0D48-894D-4EA021F086F3}"/>
-    <hyperlink ref="A41" r:id="rId40" xr:uid="{FC3915B5-29C3-C043-BDCD-7DF14D22F1FC}"/>
-    <hyperlink ref="A42" r:id="rId41" xr:uid="{15C57530-E1EC-214F-BA74-46D489C02E5B}"/>
-    <hyperlink ref="A43" r:id="rId42" xr:uid="{AC4611C0-29A8-B646-9C08-5F354AAB66E0}"/>
-    <hyperlink ref="A44" r:id="rId43" xr:uid="{E2FE10FB-645E-5545-A830-A4035AFC5D0E}"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://puntomascotas.cl/farmacia-veterinaria/30441-mixantip-plus-crema-15gr-7800006003455.html" xr:uid="{427B179A-909B-F14D-9A24-B0D19836C4D1}"/>
-    <hyperlink ref="A46" r:id="rId45" xr:uid="{034D3B2A-7E8C-C846-B26A-09F0C1855B31}"/>
-    <hyperlink ref="A47" r:id="rId46" xr:uid="{6B33615D-D4A7-1042-A506-482141E0D1FD}"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://puntomascotas.cl/farmacia-veterinaria/30771-laveta-carnitina-perros-8711231114283.html" xr:uid="{658678C4-541D-5D48-A21B-5C1661FBBD85}"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://puntomascotas.cl/farmacia-veterinaria/30770-laveta-taurina-gatos-8711231114306.html" xr:uid="{DE1C0B07-E813-FB4C-A081-D1BEE4ECF8C3}"/>
-    <hyperlink ref="A50" r:id="rId49" display="https://puntomascotas.cl/nexgard-spectra/37705-nexgard-spectra-301-a-60-kg-7809599501973.html" xr:uid="{0F602479-4133-3D41-A90E-5A43D746AD4B}"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://puntomascotas.cl/nexgard-spectra/37496-nexgard-spectra-301-a-60-kg-7809599501928.html" xr:uid="{37AA238D-8064-D94B-A133-44934F634CBC}"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://puntomascotas.cl/nexgard-spectra/37701-nexgard-spectra-301-a-60-kg-7809599501980.html" xr:uid="{B6491885-2A4D-4947-94ED-BF802B0662AB}"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://puntomascotas.cl/nexgard-spectra/37494-nexgard-spectra-301-a-60-kg-7809599501935.html" xr:uid="{2070F654-F7BA-3847-ABEE-DF829571C484}"/>
-    <hyperlink ref="A54" r:id="rId53" xr:uid="{A3517DED-0BA5-0446-8D53-9E77BD1AE42F}"/>
-    <hyperlink ref="A55" r:id="rId54" xr:uid="{20CBE817-F29B-E94E-8A8D-48A052DB63C7}"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://puntomascotas.cl/farmacia-veterinaria/37025-silimavet-silimarina-30-comprimidos-761887135476.html" xr:uid="{7D8FB34C-5C14-624B-9069-93DD562C4B13}"/>
-    <hyperlink ref="A57" r:id="rId56" xr:uid="{DE04AB3E-0D10-7641-8B6F-970CEAD469E8}"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://puntomascotas.cl/farmacia-veterinaria/30437-naxpet-jarabe-7800006006814.html" xr:uid="{D788C29E-82D3-1A48-8690-DC7A5A815F46}"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://puntomascotas.cl/farmacia-veterinaria/34417-pederol-250ml-8436529621938.html" xr:uid="{B5D5AB61-9097-9945-A4AD-7B52DCA37B8D}"/>
-    <hyperlink ref="A60" r:id="rId59" xr:uid="{73C11CBA-EE11-DC46-96CE-8CEED033779F}"/>
-    <hyperlink ref="A61" r:id="rId60" xr:uid="{57C9CD04-3CC8-2947-B1D4-3B4F92D850E0}"/>
-    <hyperlink ref="A62" r:id="rId61" xr:uid="{96349215-FC2B-9F45-B849-218A4355EDD0}"/>
-    <hyperlink ref="A63" r:id="rId62" xr:uid="{FB5E313D-F674-5A4A-A43B-18FCCD81D49F}"/>
-    <hyperlink ref="A64" r:id="rId63" xr:uid="{77666C57-79F3-A54C-AE66-46FE6EDE6595}"/>
-    <hyperlink ref="A65" r:id="rId64" xr:uid="{FDB41513-02B6-EA48-AD20-7FABCAE7CB4D}"/>
-    <hyperlink ref="A66" r:id="rId65" xr:uid="{8A2123D0-36D9-F342-9AB8-3486DDB5B97E}"/>
-    <hyperlink ref="A67" r:id="rId66" xr:uid="{0B937DB1-2D0C-A648-82CE-AED223CDDCEF}"/>
-    <hyperlink ref="A68" r:id="rId67" xr:uid="{D55F95FB-9F2E-0448-9957-1743CE193323}"/>
-    <hyperlink ref="A69" r:id="rId68" xr:uid="{3ABD03B4-3C65-DC45-81B7-998813AE0769}"/>
-    <hyperlink ref="A70" r:id="rId69" xr:uid="{A72C767F-90C3-B349-9C13-B4111911AF62}"/>
-    <hyperlink ref="A71" r:id="rId70" xr:uid="{5AA7C598-0AB9-F64D-A166-ABE60D802ADC}"/>
-    <hyperlink ref="A72" r:id="rId71" xr:uid="{98507374-E8C3-F34A-AF1E-B4CF7592B427}"/>
-    <hyperlink ref="A73" r:id="rId72" xr:uid="{CF60CE30-BAB5-8240-9A64-465FFA311760}"/>
-    <hyperlink ref="A74" r:id="rId73" xr:uid="{033FB2B9-DCFE-9D49-9425-35ABDAAA8776}"/>
-    <hyperlink ref="A75" r:id="rId74" xr:uid="{DF35C0FD-B981-D34E-93E9-AA9589923D92}"/>
-    <hyperlink ref="A76" r:id="rId75" xr:uid="{395B3915-11FD-4149-A0C0-5A032AE6E73D}"/>
-    <hyperlink ref="A77" r:id="rId76" xr:uid="{CAB2EDB2-E452-4048-939A-69C3590E21C7}"/>
-    <hyperlink ref="A78" r:id="rId77" xr:uid="{BA3A06B4-FA96-DD43-A978-058E43915D3A}"/>
-    <hyperlink ref="A79" r:id="rId78" xr:uid="{4168AD9A-30CE-9443-9AA8-56DBCB0DBBF4}"/>
-    <hyperlink ref="A80" r:id="rId79" xr:uid="{E0BA0256-3AC4-4948-8265-F26B5E220048}"/>
-    <hyperlink ref="A81" r:id="rId80" xr:uid="{69C87542-EC1E-6748-87B7-9A0FFE6037C1}"/>
+    <hyperlink ref="A31" r:id="rId29" xr:uid="{BE022B4F-E9E8-2A45-9DA2-5075F2476D8A}"/>
+    <hyperlink ref="A33" r:id="rId30" xr:uid="{82C30FD1-0FCE-184F-B76F-A192F3A7CAF2}"/>
+    <hyperlink ref="A34" r:id="rId31" xr:uid="{F980350A-3C8F-2A49-A7BF-05268208F30D}"/>
+    <hyperlink ref="A35" r:id="rId32" xr:uid="{6C9F9A2E-ABAA-3C4F-A126-33D3DFB5C4EB}"/>
+    <hyperlink ref="A36" r:id="rId33" xr:uid="{96621287-DE84-8F47-91CE-2AD818E5DF47}"/>
+    <hyperlink ref="A37" r:id="rId34" xr:uid="{FF9BA53F-74BB-EC46-B201-9C5A4D32A575}"/>
+    <hyperlink ref="A38" r:id="rId35" xr:uid="{19A51F84-646D-F54F-BB3A-1FF5F4FD72C9}"/>
+    <hyperlink ref="A39" r:id="rId36" xr:uid="{21E451DB-ABDD-8C44-9DE5-7A8947AE8746}"/>
+    <hyperlink ref="A40" r:id="rId37" xr:uid="{CC1C5D98-7952-0D48-894D-4EA021F086F3}"/>
+    <hyperlink ref="A41" r:id="rId38" xr:uid="{FC3915B5-29C3-C043-BDCD-7DF14D22F1FC}"/>
+    <hyperlink ref="A42" r:id="rId39" xr:uid="{15C57530-E1EC-214F-BA74-46D489C02E5B}"/>
+    <hyperlink ref="A43" r:id="rId40" xr:uid="{AC4611C0-29A8-B646-9C08-5F354AAB66E0}"/>
+    <hyperlink ref="A44" r:id="rId41" xr:uid="{E2FE10FB-645E-5545-A830-A4035AFC5D0E}"/>
+    <hyperlink ref="A46" r:id="rId42" xr:uid="{034D3B2A-7E8C-C846-B26A-09F0C1855B31}"/>
+    <hyperlink ref="A47" r:id="rId43" xr:uid="{6B33615D-D4A7-1042-A506-482141E0D1FD}"/>
+    <hyperlink ref="A54" r:id="rId44" xr:uid="{A3517DED-0BA5-0446-8D53-9E77BD1AE42F}"/>
+    <hyperlink ref="A55" r:id="rId45" xr:uid="{20CBE817-F29B-E94E-8A8D-48A052DB63C7}"/>
+    <hyperlink ref="A57" r:id="rId46" xr:uid="{DE04AB3E-0D10-7641-8B6F-970CEAD469E8}"/>
+    <hyperlink ref="A60" r:id="rId47" xr:uid="{73C11CBA-EE11-DC46-96CE-8CEED033779F}"/>
+    <hyperlink ref="A61" r:id="rId48" xr:uid="{57C9CD04-3CC8-2947-B1D4-3B4F92D850E0}"/>
+    <hyperlink ref="A62" r:id="rId49" xr:uid="{96349215-FC2B-9F45-B849-218A4355EDD0}"/>
+    <hyperlink ref="A63" r:id="rId50" xr:uid="{FB5E313D-F674-5A4A-A43B-18FCCD81D49F}"/>
+    <hyperlink ref="A64" r:id="rId51" xr:uid="{77666C57-79F3-A54C-AE66-46FE6EDE6595}"/>
+    <hyperlink ref="A66" r:id="rId52" xr:uid="{8A2123D0-36D9-F342-9AB8-3486DDB5B97E}"/>
+    <hyperlink ref="A67" r:id="rId53" xr:uid="{0B937DB1-2D0C-A648-82CE-AED223CDDCEF}"/>
+    <hyperlink ref="A68" r:id="rId54" xr:uid="{D55F95FB-9F2E-0448-9957-1743CE193323}"/>
+    <hyperlink ref="A69" r:id="rId55" xr:uid="{3ABD03B4-3C65-DC45-81B7-998813AE0769}"/>
+    <hyperlink ref="A70" r:id="rId56" xr:uid="{A72C767F-90C3-B349-9C13-B4111911AF62}"/>
+    <hyperlink ref="A71" r:id="rId57" xr:uid="{5AA7C598-0AB9-F64D-A166-ABE60D802ADC}"/>
+    <hyperlink ref="A72" r:id="rId58" xr:uid="{98507374-E8C3-F34A-AF1E-B4CF7592B427}"/>
+    <hyperlink ref="A73" r:id="rId59" xr:uid="{CF60CE30-BAB5-8240-9A64-465FFA311760}"/>
+    <hyperlink ref="A74" r:id="rId60" xr:uid="{033FB2B9-DCFE-9D49-9425-35ABDAAA8776}"/>
+    <hyperlink ref="A75" r:id="rId61" xr:uid="{DF35C0FD-B981-D34E-93E9-AA9589923D92}"/>
+    <hyperlink ref="A76" r:id="rId62" xr:uid="{395B3915-11FD-4149-A0C0-5A032AE6E73D}"/>
+    <hyperlink ref="A77" r:id="rId63" xr:uid="{CAB2EDB2-E452-4048-939A-69C3590E21C7}"/>
+    <hyperlink ref="A78" r:id="rId64" xr:uid="{BA3A06B4-FA96-DD43-A978-058E43915D3A}"/>
+    <hyperlink ref="A79" r:id="rId65" xr:uid="{4168AD9A-30CE-9443-9AA8-56DBCB0DBBF4}"/>
+    <hyperlink ref="A80" r:id="rId66" xr:uid="{E0BA0256-3AC4-4948-8265-F26B5E220048}"/>
+    <hyperlink ref="A81" r:id="rId67" xr:uid="{69C87542-EC1E-6748-87B7-9A0FFE6037C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
